--- a/zhipin_job.xlsx
+++ b/zhipin_job.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuermobai\Desktop\mygit\python-crawler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6782E509-390D-4BEB-80D7-3F3C810E1869}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14355" windowHeight="8985" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="8985" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -55,7 +60,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>薪资</t>
     </r>
@@ -63,7 +68,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -73,7 +78,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>薪资</t>
     </r>
@@ -81,7 +86,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -112,7 +117,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -120,7 +125,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>工程师</t>
     </r>
@@ -136,7 +141,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3-5</t>
     </r>
@@ -144,7 +149,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>年</t>
     </r>
@@ -160,7 +165,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1000-9999</t>
     </r>
@@ -168,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人</t>
     </r>
@@ -178,7 +183,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>08</t>
     </r>
@@ -186,7 +191,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -194,7 +199,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23</t>
     </r>
@@ -202,7 +207,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -218,7 +223,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1-3</t>
     </r>
@@ -226,7 +231,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>年</t>
     </r>
@@ -239,7 +244,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -247,7 +252,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -255,7 +260,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -263,7 +268,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -276,7 +281,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -284,7 +289,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>训练师</t>
     </r>
@@ -300,7 +305,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -308,7 +313,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>轮</t>
     </r>
@@ -318,7 +323,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>100-499</t>
     </r>
@@ -326,7 +331,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人</t>
     </r>
@@ -336,7 +341,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -344,7 +349,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -352,7 +357,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>19</t>
     </r>
@@ -360,7 +365,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -385,7 +390,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20-99</t>
     </r>
@@ -393,7 +398,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人</t>
     </r>
@@ -403,7 +408,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>06</t>
     </r>
@@ -411,7 +416,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -419,7 +424,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -427,7 +432,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -440,7 +445,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -448,7 +453,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>算法工程师</t>
     </r>
@@ -464,7 +469,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -472,7 +477,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -480,7 +485,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>22</t>
     </r>
@@ -488,7 +493,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -501,7 +506,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -509,7 +514,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>产品设计</t>
     </r>
@@ -522,7 +527,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0-20</t>
     </r>
@@ -530,7 +535,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人</t>
     </r>
@@ -540,7 +545,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -548,7 +553,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -556,7 +561,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>13</t>
     </r>
@@ -564,7 +569,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -574,7 +579,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -582,7 +587,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>话术编辑</t>
     </r>
@@ -595,7 +600,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -603,7 +608,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -611,7 +616,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>16</t>
     </r>
@@ -619,7 +624,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -629,7 +634,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>08</t>
     </r>
@@ -637,7 +642,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -645,7 +650,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>28</t>
     </r>
@@ -653,7 +658,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -663,7 +668,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>校长</t>
     </r>
@@ -671,7 +676,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -679,7 +684,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人工智能教育</t>
     </r>
@@ -687,7 +692,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -703,7 +708,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -711,7 +716,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -719,7 +724,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -727,7 +732,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -740,7 +745,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>软件工程师（人工智能</t>
     </r>
@@ -748,7 +753,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -756,7 +761,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>上位机</t>
     </r>
@@ -764,7 +769,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/C++</t>
     </r>
@@ -772,7 +777,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>）</t>
     </r>
@@ -785,7 +790,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -793,7 +798,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -801,7 +806,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -809,7 +814,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -822,7 +827,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>空运单证员（</t>
     </r>
@@ -830,7 +835,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -838,7 +843,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>）</t>
     </r>
@@ -848,7 +853,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -856,7 +861,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>年以内</t>
     </r>
@@ -866,7 +871,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>物流</t>
     </r>
@@ -874,7 +879,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -882,7 +887,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>仓储</t>
     </r>
@@ -892,7 +897,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>500-999</t>
     </r>
@@ -900,7 +905,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人</t>
     </r>
@@ -910,7 +915,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>05</t>
     </r>
@@ -918,7 +923,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -926,7 +931,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>21</t>
     </r>
@@ -934,7 +939,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -947,7 +952,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -955,7 +960,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -963,7 +968,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>17</t>
     </r>
@@ -971,7 +976,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -987,7 +992,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -995,7 +1000,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>轮</t>
     </r>
@@ -1005,7 +1010,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1013,7 +1018,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1021,7 +1026,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>18</t>
     </r>
@@ -1029,7 +1034,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1042,7 +1047,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>08</t>
     </r>
@@ -1050,7 +1055,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1058,7 +1063,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>09</t>
     </r>
@@ -1066,7 +1071,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1079,7 +1084,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>财务出纳</t>
     </r>
@@ -1087,7 +1092,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>---</t>
     </r>
@@ -1095,7 +1100,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>无人驾驶</t>
     </r>
@@ -1103,7 +1108,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+AI</t>
     </r>
@@ -1111,7 +1116,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>行业（苏州）</t>
     </r>
@@ -1124,7 +1129,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1132,7 +1137,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1140,7 +1145,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>21</t>
     </r>
@@ -1148,7 +1153,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1158,7 +1163,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -1166,7 +1171,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>研究主管</t>
     </r>
@@ -1176,7 +1181,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>06</t>
     </r>
@@ -1184,7 +1189,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1192,7 +1197,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>29</t>
     </r>
@@ -1200,7 +1205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1213,7 +1218,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -1221,7 +1226,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>图像算法</t>
     </r>
@@ -1231,7 +1236,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>通信</t>
     </r>
@@ -1239,7 +1244,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1247,7 +1252,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>网络设备</t>
     </r>
@@ -1257,7 +1262,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -1265,7 +1270,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1273,7 +1278,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -1281,7 +1286,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1291,7 +1296,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -1299,7 +1304,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数据标注</t>
     </r>
@@ -1309,7 +1314,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -1317,7 +1322,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>话销机器人推广师</t>
     </r>
@@ -1327,7 +1332,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -1335,7 +1340,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1343,7 +1348,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -1351,7 +1356,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1364,7 +1369,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -1372,7 +1377,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1380,7 +1385,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>19</t>
     </r>
@@ -1388,7 +1393,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1407,7 +1412,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>广告</t>
     </r>
@@ -1415,7 +1420,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1423,7 +1428,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>公关</t>
     </r>
@@ -1431,7 +1436,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1439,7 +1444,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>会展</t>
     </r>
@@ -1449,7 +1454,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -1457,7 +1462,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1465,7 +1470,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>26</t>
     </r>
@@ -1473,7 +1478,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1483,7 +1488,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AI</t>
     </r>
@@ -1491,7 +1496,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>英语教研助理</t>
     </r>
@@ -1501,7 +1506,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -1509,7 +1514,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1517,7 +1522,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>09</t>
     </r>
@@ -1525,7 +1530,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1535,7 +1540,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中专</t>
     </r>
@@ -1543,7 +1548,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1551,7 +1556,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中技</t>
     </r>
@@ -1561,7 +1566,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -1569,7 +1574,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1577,7 +1582,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23</t>
     </r>
@@ -1585,7 +1590,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1604,7 +1609,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>07</t>
     </r>
@@ -1612,7 +1617,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1620,7 +1625,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>04</t>
     </r>
@@ -1628,7 +1633,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1641,7 +1646,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>课程顾问</t>
     </r>
@@ -1649,7 +1654,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1657,7 +1662,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人工智能教育</t>
     </r>
@@ -1665,7 +1670,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1687,7 +1692,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>教务班主任</t>
     </r>
@@ -1695,7 +1700,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1703,7 +1708,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人工智能教育</t>
     </r>
@@ -1711,7 +1716,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1721,7 +1726,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>K12</t>
     </r>
@@ -1729,7 +1734,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>初中物理老师</t>
     </r>
@@ -1737,7 +1742,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1745,7 +1750,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人工智能教育</t>
     </r>
@@ -1753,7 +1758,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1763,7 +1768,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>08</t>
     </r>
@@ -1771,7 +1776,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1779,7 +1784,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>19</t>
     </r>
@@ -1787,7 +1792,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1797,7 +1802,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -1805,7 +1810,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>月</t>
     </r>
@@ -1813,7 +1818,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23</t>
     </r>
@@ -1821,7 +1826,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="WenQuanYi Zen Hei"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>日</t>
     </r>
@@ -1830,14 +1835,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1846,355 +1845,28 @@
     <font>
       <sz val="10"/>
       <name val="WenQuanYi Zen Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2202,308 +1874,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2520,7 +1916,179 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:doughnutChart>
@@ -2539,8 +2107,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2555,11 +2121,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2571,6 +2141,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2586,6 +2161,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2601,6 +2181,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2616,6 +2201,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2631,6 +2221,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2657,6 +2252,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2665,26 +2261,23 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2737,6 +2330,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AC5E-4E7B-8DF2-B2C9B0C7AEFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2764,8 +2362,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0277777777777778"/>
-          <c:y val="0.286921296296296"/>
+          <c:x val="2.7777777777777801E-2"/>
+          <c:y val="0.28692129629629598"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2793,6 +2391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2822,6 +2421,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3403,7 +3003,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3417,14 +3017,20 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1282700" y="403225"/>
-        <a:ext cx="6875145" cy="5541645"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3438,7 +3044,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43452.0288773148" refreshedBy="libre" recordCount="301">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="libre" refreshedDate="43452.028877314799" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="301" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="G1:G1048576" sheet="zhipin_job"/>
   </cacheSource>
@@ -3454,6 +3060,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -4366,7 +3977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" showAll="0">
@@ -4413,10 +4024,96 @@
   <dataFields count="1">
     <dataField name="Count of 学历" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4674,22 +4371,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.375"/>
-    <col min="2" max="2" width="13.5"/>
+    <col min="1" max="1" width="12.42578125"/>
+    <col min="2" max="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -4740,7 +4437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4754,37 +4451,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.4416666666667" customWidth="1"/>
-    <col min="2" max="3" width="6.15833333333333" customWidth="1"/>
-    <col min="4" max="5" width="6.98333333333333" customWidth="1"/>
-    <col min="6" max="6" width="5.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.35" customWidth="1"/>
-    <col min="8" max="8" width="13.5166666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.76666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.7083333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.06666666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.6333333333333" customWidth="1"/>
-    <col min="13" max="1025" width="11.5166666666667"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4822,7 +4518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4860,7 +4556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4898,7 +4594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4936,7 +4632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:12">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -4974,7 +4670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:12">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5012,7 +4708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5050,7 +4746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +4784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:12">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +4822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:12">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5164,7 +4860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:12">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -5202,7 +4898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:12">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,7 +4936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:12">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -5278,7 +4974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:12">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -5316,7 +5012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:12">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -5351,7 +5047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:12">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -5389,7 +5085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:12">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -5427,7 +5123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -5465,7 +5161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:12">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -5503,7 +5199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:12">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -5541,7 +5237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="1:12">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -5579,7 +5275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="1:12">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -5617,7 +5313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="1:12">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5655,7 +5351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:12">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -5693,7 +5389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:12">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -5731,7 +5427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -5769,7 +5465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" ht="13.5" spans="1:12">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>111</v>
       </c>
@@ -5807,7 +5503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:12">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -5845,7 +5541,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:12">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
@@ -5883,7 +5579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" ht="13.5" spans="1:12">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -5921,7 +5617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" ht="13.5" spans="1:12">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -5959,7 +5655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" ht="13.5" spans="1:12">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -5997,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" ht="13.5" spans="1:12">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -6035,7 +5731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="13.5" spans="1:12">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6073,7 +5769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" ht="13.5" spans="1:12">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -6111,7 +5807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" ht="13.5" spans="1:12">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -6149,7 +5845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" ht="13.5" spans="1:12">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -6187,7 +5883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="13.5" spans="1:12">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6225,7 +5921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" ht="13.5" spans="1:12">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -6263,7 +5959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" ht="13.5" spans="1:12">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -6301,7 +5997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" ht="13.5" spans="1:12">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6339,7 +6035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" ht="13.5" spans="1:12">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -6377,7 +6073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" ht="13.5" spans="1:12">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -6415,7 +6111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" ht="13.5" spans="1:12">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -6453,7 +6149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" ht="13.5" spans="1:12">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -6488,7 +6184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" ht="13.5" spans="1:12">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -6526,7 +6222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" ht="13.5" spans="1:12">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -6564,7 +6260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="13.5" spans="1:12">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -6602,7 +6298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" ht="13.5" spans="1:12">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -6640,7 +6336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" ht="13.5" spans="1:12">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -6678,7 +6374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" ht="13.5" spans="1:12">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -6716,7 +6412,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" ht="13.5" spans="1:12">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
@@ -6754,7 +6450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" ht="13.5" spans="1:12">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -6792,7 +6488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" ht="13.5" spans="1:12">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6830,7 +6526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" ht="13.5" spans="1:12">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -6868,7 +6564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" ht="13.5" spans="1:12">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -6906,7 +6602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" ht="13.5" spans="1:12">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -6944,7 +6640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" ht="13.5" spans="1:12">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -6982,7 +6678,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" ht="13.5" spans="1:12">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -7020,7 +6716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" ht="13.5" spans="1:12">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -7058,7 +6754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" ht="13.5" spans="1:12">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -7096,7 +6792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" ht="13.5" spans="1:12">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -7134,7 +6830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" ht="13.5" spans="1:12">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -7172,7 +6868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" ht="13.5" spans="1:12">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -7210,7 +6906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" ht="13.5" spans="1:12">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -7248,7 +6944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" ht="13.5" spans="1:12">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -7286,7 +6982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" ht="13.5" spans="1:12">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -7324,7 +7020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" ht="13.5" spans="1:12">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -7362,7 +7058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" ht="13.5" spans="1:12">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -7400,7 +7096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" ht="13.5" spans="1:12">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -7438,7 +7134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="13.5" spans="1:12">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -7476,7 +7172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" ht="13.5" spans="1:12">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -7514,7 +7210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" ht="13.5" spans="1:12">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -7552,7 +7248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" ht="13.5" spans="1:12">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -7590,7 +7286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" ht="13.5" spans="1:12">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -7625,7 +7321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" ht="13.5" spans="1:12">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -7663,7 +7359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" ht="13.5" spans="1:12">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -7701,7 +7397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" ht="13.5" spans="1:12">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -7739,7 +7435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" ht="13.5" spans="1:12">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -7777,7 +7473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" ht="13.5" spans="1:12">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -7815,7 +7511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" ht="13.5" spans="1:12">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -7853,7 +7549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" ht="13.5" spans="1:12">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -7891,7 +7587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" ht="13.5" spans="1:12">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -7929,7 +7625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" ht="13.5" spans="1:12">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -7967,7 +7663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" ht="13.5" spans="1:12">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>98</v>
       </c>
@@ -8005,7 +7701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" ht="13.5" spans="1:12">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>106</v>
       </c>
@@ -8043,7 +7739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" ht="13.5" spans="1:12">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -8081,7 +7777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" ht="13.5" spans="1:12">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>112</v>
       </c>
@@ -8119,7 +7815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" ht="13.5" spans="1:12">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>116</v>
       </c>
@@ -8157,7 +7853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" ht="13.5" spans="1:12">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -8195,7 +7891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" ht="13.5" spans="1:12">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -8233,7 +7929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" ht="13.5" spans="1:12">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -8271,7 +7967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" ht="13.5" spans="1:12">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -8309,7 +8005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" ht="13.5" spans="1:12">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -8347,7 +8043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" ht="13.5" spans="1:12">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
@@ -8385,7 +8081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" ht="13.5" spans="1:12">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -8423,7 +8119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" ht="13.5" spans="1:12">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -8461,7 +8157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" ht="13.5" spans="1:12">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -8499,7 +8195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" ht="13.5" spans="1:12">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -8537,7 +8233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" ht="13.5" spans="1:12">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>60</v>
       </c>
@@ -8575,7 +8271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" ht="13.5" spans="1:12">
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
         <v>65</v>
       </c>
@@ -8613,7 +8309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" ht="13.5" spans="1:12">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>69</v>
       </c>
@@ -8651,7 +8347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" ht="13.5" spans="1:12">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>74</v>
       </c>
@@ -8689,7 +8385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" ht="13.5" spans="1:12">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>77</v>
       </c>
@@ -8727,7 +8423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" ht="13.5" spans="1:12">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -8762,7 +8458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" ht="13.5" spans="1:12">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>83</v>
       </c>
@@ -8800,7 +8496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" ht="13.5" spans="1:12">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -8838,7 +8534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" ht="13.5" spans="1:12">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>89</v>
       </c>
@@ -8876,7 +8572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" ht="13.5" spans="1:12">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -8914,7 +8610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" ht="13.5" spans="1:12">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -8952,7 +8648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" ht="13.5" spans="1:12">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
@@ -8990,7 +8686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" ht="13.5" spans="1:12">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>98</v>
       </c>
@@ -9028,7 +8724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" ht="13.5" spans="1:12">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -9066,7 +8762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" ht="13.5" spans="1:12">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -9104,7 +8800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" ht="13.5" spans="1:12">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>98</v>
       </c>
@@ -9142,7 +8838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" ht="13.5" spans="1:12">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>106</v>
       </c>
@@ -9180,7 +8876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="13.5" spans="1:12">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -9218,7 +8914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" ht="13.5" spans="1:12">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -9256,7 +8952,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" ht="13.5" spans="1:12">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
@@ -9294,7 +8990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" ht="13.5" spans="1:12">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -9332,7 +9028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" ht="13.5" spans="1:12">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>98</v>
       </c>
@@ -9370,7 +9066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" ht="13.5" spans="1:12">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -9408,7 +9104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" ht="13.5" spans="1:12">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -9446,7 +9142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" ht="13.5" spans="1:12">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -9484,7 +9180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" ht="13.5" spans="1:12">
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>39</v>
       </c>
@@ -9522,7 +9218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" ht="13.5" spans="1:12">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -9560,7 +9256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" ht="13.5" spans="1:12">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>52</v>
       </c>
@@ -9598,7 +9294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" ht="13.5" spans="1:12">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>56</v>
       </c>
@@ -9636,7 +9332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" ht="13.5" spans="1:12">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -9674,7 +9370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" ht="13.5" spans="1:12">
+    <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
         <v>60</v>
       </c>
@@ -9712,7 +9408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" ht="13.5" spans="1:12">
+    <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>65</v>
       </c>
@@ -9750,7 +9446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="132" ht="13.5" spans="1:12">
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>69</v>
       </c>
@@ -9788,7 +9484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" ht="13.5" spans="1:12">
+    <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>74</v>
       </c>
@@ -9826,7 +9522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" ht="13.5" spans="1:12">
+    <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
         <v>77</v>
       </c>
@@ -9864,7 +9560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" ht="13.5" spans="1:12">
+    <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
         <v>80</v>
       </c>
@@ -9899,7 +9595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" ht="13.5" spans="1:12">
+    <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
         <v>83</v>
       </c>
@@ -9937,7 +9633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" ht="13.5" spans="1:12">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>86</v>
       </c>
@@ -9975,7 +9671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" ht="13.5" spans="1:12">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>89</v>
       </c>
@@ -10013,7 +9709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" ht="13.5" spans="1:12">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -10051,7 +9747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" ht="13.5" spans="1:12">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>93</v>
       </c>
@@ -10089,7 +9785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" ht="13.5" spans="1:12">
+    <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
         <v>95</v>
       </c>
@@ -10127,7 +9823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" ht="13.5" spans="1:12">
+    <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
         <v>98</v>
       </c>
@@ -10165,7 +9861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" ht="13.5" spans="1:12">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>102</v>
       </c>
@@ -10203,7 +9899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" ht="13.5" spans="1:12">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -10241,7 +9937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" ht="13.5" spans="1:12">
+    <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
         <v>98</v>
       </c>
@@ -10279,7 +9975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" ht="13.5" spans="1:12">
+    <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
         <v>106</v>
       </c>
@@ -10317,7 +10013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" ht="13.5" spans="1:12">
+    <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
         <v>111</v>
       </c>
@@ -10355,7 +10051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" ht="13.5" spans="1:12">
+    <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
         <v>112</v>
       </c>
@@ -10393,7 +10089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="149" ht="13.5" spans="1:12">
+    <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
         <v>116</v>
       </c>
@@ -10431,7 +10127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" ht="13.5" spans="1:12">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>117</v>
       </c>
@@ -10469,7 +10165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" ht="13.5" spans="1:12">
+    <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
         <v>98</v>
       </c>
@@ -10507,7 +10203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" ht="13.5" spans="1:12">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -10545,7 +10241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="1:12">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -10583,7 +10279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" ht="13.5" spans="1:12">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -10621,7 +10317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" ht="13.5" spans="1:12">
+    <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
         <v>39</v>
       </c>
@@ -10659,7 +10355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" ht="13.5" spans="1:12">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -10697,7 +10393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" ht="13.5" spans="1:12">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>52</v>
       </c>
@@ -10735,7 +10431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" ht="13.5" spans="1:12">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -10773,7 +10469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" ht="13.5" spans="1:12">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -10811,7 +10507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:12">
+    <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
         <v>60</v>
       </c>
@@ -10849,7 +10545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" ht="13.5" spans="1:12">
+    <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
         <v>65</v>
       </c>
@@ -10887,7 +10583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:12">
+    <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
         <v>69</v>
       </c>
@@ -10925,7 +10621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:12">
+    <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
         <v>74</v>
       </c>
@@ -10963,7 +10659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:12">
+    <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
         <v>77</v>
       </c>
@@ -11001,7 +10697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:12">
+    <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
         <v>80</v>
       </c>
@@ -11036,7 +10732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:12">
+    <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
         <v>83</v>
       </c>
@@ -11074,7 +10770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:12">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>86</v>
       </c>
@@ -11112,7 +10808,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:12">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -11150,7 +10846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:12">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -11188,7 +10884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:12">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -11226,7 +10922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:12">
+    <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
         <v>95</v>
       </c>
@@ -11264,7 +10960,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:12">
+    <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
         <v>98</v>
       </c>
@@ -11302,7 +10998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:12">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>102</v>
       </c>
@@ -11340,7 +11036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:12">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -11378,7 +11074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:12">
+    <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
         <v>98</v>
       </c>
@@ -11416,7 +11112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:12">
+    <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
         <v>106</v>
       </c>
@@ -11454,7 +11150,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:12">
+    <row r="177" spans="1:12">
       <c r="A177" s="1" t="s">
         <v>111</v>
       </c>
@@ -11492,7 +11188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:12">
+    <row r="178" spans="1:12">
       <c r="A178" s="1" t="s">
         <v>112</v>
       </c>
@@ -11530,7 +11226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:12">
+    <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
         <v>116</v>
       </c>
@@ -11568,7 +11264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:12">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>117</v>
       </c>
@@ -11606,7 +11302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:12">
+    <row r="181" spans="1:12">
       <c r="A181" s="1" t="s">
         <v>98</v>
       </c>
@@ -11644,7 +11340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:12">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -11682,7 +11378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" ht="13.5" spans="1:12">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -11720,7 +11416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:12">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -11758,7 +11454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:12">
+    <row r="185" spans="1:12">
       <c r="A185" s="1" t="s">
         <v>39</v>
       </c>
@@ -11796,7 +11492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:12">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>47</v>
       </c>
@@ -11834,7 +11530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:12">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -11872,7 +11568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" ht="13.5" spans="1:12">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>56</v>
       </c>
@@ -11910,7 +11606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:12">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -11948,7 +11644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="1:12">
+    <row r="190" spans="1:12">
       <c r="A190" s="1" t="s">
         <v>60</v>
       </c>
@@ -11986,7 +11682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" ht="13.5" spans="1:12">
+    <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
         <v>65</v>
       </c>
@@ -12024,7 +11720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" ht="13.5" spans="1:12">
+    <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
         <v>69</v>
       </c>
@@ -12062,7 +11758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" ht="13.5" spans="1:12">
+    <row r="193" spans="1:12">
       <c r="A193" s="1" t="s">
         <v>74</v>
       </c>
@@ -12100,7 +11796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" ht="13.5" spans="1:12">
+    <row r="194" spans="1:12">
       <c r="A194" s="1" t="s">
         <v>77</v>
       </c>
@@ -12138,7 +11834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" ht="13.5" spans="1:12">
+    <row r="195" spans="1:12">
       <c r="A195" s="1" t="s">
         <v>80</v>
       </c>
@@ -12173,7 +11869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" ht="13.5" spans="1:12">
+    <row r="196" spans="1:12">
       <c r="A196" s="1" t="s">
         <v>83</v>
       </c>
@@ -12211,7 +11907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" ht="13.5" spans="1:12">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -12249,7 +11945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" ht="13.5" spans="1:12">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -12287,7 +11983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" ht="13.5" spans="1:12">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>92</v>
       </c>
@@ -12325,7 +12021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" ht="13.5" spans="1:12">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>93</v>
       </c>
@@ -12363,7 +12059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" ht="13.5" spans="1:12">
+    <row r="201" spans="1:12">
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
@@ -12401,7 +12097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="202" ht="13.5" spans="1:12">
+    <row r="202" spans="1:12">
       <c r="A202" s="1" t="s">
         <v>98</v>
       </c>
@@ -12439,7 +12135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" ht="13.5" spans="1:12">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>102</v>
       </c>
@@ -12477,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" ht="13.5" spans="1:12">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>56</v>
       </c>
@@ -12515,7 +12211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" ht="13.5" spans="1:12">
+    <row r="205" spans="1:12">
       <c r="A205" s="1" t="s">
         <v>98</v>
       </c>
@@ -12553,7 +12249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" ht="13.5" spans="1:12">
+    <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
         <v>106</v>
       </c>
@@ -12591,7 +12287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="207" ht="13.5" spans="1:12">
+    <row r="207" spans="1:12">
       <c r="A207" s="1" t="s">
         <v>111</v>
       </c>
@@ -12629,7 +12325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" ht="13.5" spans="1:12">
+    <row r="208" spans="1:12">
       <c r="A208" s="1" t="s">
         <v>112</v>
       </c>
@@ -12667,7 +12363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="209" ht="13.5" spans="1:12">
+    <row r="209" spans="1:12">
       <c r="A209" s="1" t="s">
         <v>116</v>
       </c>
@@ -12705,7 +12401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" ht="13.5" spans="1:12">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -12743,7 +12439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" ht="13.5" spans="1:12">
+    <row r="211" spans="1:12">
       <c r="A211" s="1" t="s">
         <v>98</v>
       </c>
@@ -12781,7 +12477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" ht="13.5" spans="1:12">
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -12819,7 +12515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" ht="13.5" spans="1:12">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -12857,7 +12553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" ht="13.5" spans="1:12">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -12895,7 +12591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" ht="13.5" spans="1:12">
+    <row r="215" spans="1:12">
       <c r="A215" s="1" t="s">
         <v>39</v>
       </c>
@@ -12933,7 +12629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" ht="13.5" spans="1:12">
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>47</v>
       </c>
@@ -12971,7 +12667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" ht="13.5" spans="1:12">
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>52</v>
       </c>
@@ -13009,7 +12705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" ht="13.5" spans="1:12">
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>56</v>
       </c>
@@ -13047,7 +12743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" ht="13.5" spans="1:12">
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -13085,7 +12781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" ht="13.5" spans="1:12">
+    <row r="220" spans="1:12">
       <c r="A220" s="1" t="s">
         <v>60</v>
       </c>
@@ -13123,7 +12819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" ht="13.5" spans="1:12">
+    <row r="221" spans="1:12">
       <c r="A221" s="1" t="s">
         <v>65</v>
       </c>
@@ -13161,7 +12857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" ht="13.5" spans="1:12">
+    <row r="222" spans="1:12">
       <c r="A222" s="1" t="s">
         <v>69</v>
       </c>
@@ -13199,7 +12895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" ht="13.5" spans="1:12">
+    <row r="223" spans="1:12">
       <c r="A223" s="1" t="s">
         <v>74</v>
       </c>
@@ -13237,7 +12933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" ht="13.5" spans="1:12">
+    <row r="224" spans="1:12">
       <c r="A224" s="1" t="s">
         <v>77</v>
       </c>
@@ -13275,7 +12971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" ht="13.5" spans="1:12">
+    <row r="225" spans="1:12">
       <c r="A225" s="1" t="s">
         <v>80</v>
       </c>
@@ -13310,7 +13006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="226" ht="13.5" spans="1:12">
+    <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
         <v>83</v>
       </c>
@@ -13348,7 +13044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" ht="13.5" spans="1:12">
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>86</v>
       </c>
@@ -13386,7 +13082,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" ht="13.5" spans="1:12">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>89</v>
       </c>
@@ -13424,7 +13120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" ht="13.5" spans="1:12">
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>92</v>
       </c>
@@ -13462,7 +13158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" ht="13.5" spans="1:12">
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>93</v>
       </c>
@@ -13500,7 +13196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" ht="13.5" spans="1:12">
+    <row r="231" spans="1:12">
       <c r="A231" s="1" t="s">
         <v>95</v>
       </c>
@@ -13538,7 +13234,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="232" ht="13.5" spans="1:12">
+    <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
         <v>98</v>
       </c>
@@ -13576,7 +13272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" ht="13.5" spans="1:12">
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>102</v>
       </c>
@@ -13614,7 +13310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" ht="13.5" spans="1:12">
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>56</v>
       </c>
@@ -13652,7 +13348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" ht="13.5" spans="1:12">
+    <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
         <v>98</v>
       </c>
@@ -13690,7 +13386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" ht="13.5" spans="1:12">
+    <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
         <v>106</v>
       </c>
@@ -13728,7 +13424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="237" ht="13.5" spans="1:12">
+    <row r="237" spans="1:12">
       <c r="A237" s="1" t="s">
         <v>111</v>
       </c>
@@ -13766,7 +13462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" ht="13.5" spans="1:12">
+    <row r="238" spans="1:12">
       <c r="A238" s="1" t="s">
         <v>112</v>
       </c>
@@ -13804,7 +13500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" ht="13.5" spans="1:12">
+    <row r="239" spans="1:12">
       <c r="A239" s="1" t="s">
         <v>116</v>
       </c>
@@ -13842,7 +13538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="240" ht="13.5" spans="1:12">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>117</v>
       </c>
@@ -13880,7 +13576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="241" ht="13.5" spans="1:12">
+    <row r="241" spans="1:12">
       <c r="A241" s="1" t="s">
         <v>98</v>
       </c>
@@ -13918,7 +13614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" ht="13.5" spans="1:12">
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -13956,7 +13652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" ht="13.5" spans="1:12">
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -13994,7 +13690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" ht="13.5" spans="1:12">
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>33</v>
       </c>
@@ -14032,7 +13728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" ht="13.5" spans="1:12">
+    <row r="245" spans="1:12">
       <c r="A245" s="1" t="s">
         <v>39</v>
       </c>
@@ -14070,7 +13766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" ht="13.5" spans="1:12">
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>47</v>
       </c>
@@ -14108,7 +13804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" ht="13.5" spans="1:12">
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>52</v>
       </c>
@@ -14146,7 +13842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" ht="13.5" spans="1:12">
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -14184,7 +13880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" ht="13.5" spans="1:12">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -14222,7 +13918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" ht="13.5" spans="1:12">
+    <row r="250" spans="1:12">
       <c r="A250" s="1" t="s">
         <v>60</v>
       </c>
@@ -14260,7 +13956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="251" ht="13.5" spans="1:12">
+    <row r="251" spans="1:12">
       <c r="A251" s="1" t="s">
         <v>65</v>
       </c>
@@ -14298,7 +13994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" ht="13.5" spans="1:12">
+    <row r="252" spans="1:12">
       <c r="A252" s="1" t="s">
         <v>69</v>
       </c>
@@ -14336,7 +14032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" ht="13.5" spans="1:12">
+    <row r="253" spans="1:12">
       <c r="A253" s="1" t="s">
         <v>74</v>
       </c>
@@ -14374,7 +14070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="254" ht="13.5" spans="1:12">
+    <row r="254" spans="1:12">
       <c r="A254" s="1" t="s">
         <v>77</v>
       </c>
@@ -14412,7 +14108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" ht="13.5" spans="1:12">
+    <row r="255" spans="1:12">
       <c r="A255" s="1" t="s">
         <v>80</v>
       </c>
@@ -14447,7 +14143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="256" ht="13.5" spans="1:12">
+    <row r="256" spans="1:12">
       <c r="A256" s="1" t="s">
         <v>83</v>
       </c>
@@ -14485,7 +14181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" ht="13.5" spans="1:12">
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>86</v>
       </c>
@@ -14523,7 +14219,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="258" ht="13.5" spans="1:12">
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>89</v>
       </c>
@@ -14561,7 +14257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" ht="13.5" spans="1:12">
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>92</v>
       </c>
@@ -14599,7 +14295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="260" ht="13.5" spans="1:12">
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>93</v>
       </c>
@@ -14637,7 +14333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" ht="13.5" spans="1:12">
+    <row r="261" spans="1:12">
       <c r="A261" s="1" t="s">
         <v>95</v>
       </c>
@@ -14675,7 +14371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="262" ht="13.5" spans="1:12">
+    <row r="262" spans="1:12">
       <c r="A262" s="1" t="s">
         <v>98</v>
       </c>
@@ -14713,7 +14409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" ht="13.5" spans="1:12">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>102</v>
       </c>
@@ -14751,7 +14447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" ht="13.5" spans="1:12">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>56</v>
       </c>
@@ -14789,7 +14485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" ht="13.5" spans="1:12">
+    <row r="265" spans="1:12">
       <c r="A265" s="1" t="s">
         <v>98</v>
       </c>
@@ -14827,7 +14523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" ht="13.5" spans="1:12">
+    <row r="266" spans="1:12">
       <c r="A266" s="1" t="s">
         <v>106</v>
       </c>
@@ -14865,7 +14561,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" ht="13.5" spans="1:12">
+    <row r="267" spans="1:12">
       <c r="A267" s="1" t="s">
         <v>111</v>
       </c>
@@ -14903,7 +14599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="268" ht="13.5" spans="1:12">
+    <row r="268" spans="1:12">
       <c r="A268" s="1" t="s">
         <v>112</v>
       </c>
@@ -14941,7 +14637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="269" ht="13.5" spans="1:12">
+    <row r="269" spans="1:12">
       <c r="A269" s="1" t="s">
         <v>116</v>
       </c>
@@ -14979,7 +14675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="270" ht="13.5" spans="1:12">
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>117</v>
       </c>
@@ -15017,7 +14713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" ht="13.5" spans="1:12">
+    <row r="271" spans="1:12">
       <c r="A271" s="1" t="s">
         <v>98</v>
       </c>
@@ -15055,7 +14751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" ht="13.5" spans="1:12">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -15093,7 +14789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" ht="13.5" spans="1:12">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -15131,7 +14827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" ht="13.5" spans="1:12">
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>33</v>
       </c>
@@ -15169,7 +14865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" ht="13.5" spans="1:12">
+    <row r="275" spans="1:12">
       <c r="A275" s="1" t="s">
         <v>39</v>
       </c>
@@ -15207,7 +14903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" ht="13.5" spans="1:12">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>47</v>
       </c>
@@ -15245,7 +14941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" ht="13.5" spans="1:12">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>52</v>
       </c>
@@ -15283,7 +14979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" ht="13.5" spans="1:12">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>56</v>
       </c>
@@ -15321,7 +15017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" ht="13.5" spans="1:12">
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -15359,7 +15055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" ht="13.5" spans="1:12">
+    <row r="280" spans="1:12">
       <c r="A280" s="1" t="s">
         <v>60</v>
       </c>
@@ -15397,7 +15093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="281" ht="13.5" spans="1:12">
+    <row r="281" spans="1:12">
       <c r="A281" s="1" t="s">
         <v>65</v>
       </c>
@@ -15435,7 +15131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" ht="13.5" spans="1:12">
+    <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
         <v>69</v>
       </c>
@@ -15473,7 +15169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" ht="13.5" spans="1:12">
+    <row r="283" spans="1:12">
       <c r="A283" s="1" t="s">
         <v>74</v>
       </c>
@@ -15511,7 +15207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="284" ht="13.5" spans="1:12">
+    <row r="284" spans="1:12">
       <c r="A284" s="1" t="s">
         <v>77</v>
       </c>
@@ -15549,7 +15245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" ht="13.5" spans="1:12">
+    <row r="285" spans="1:12">
       <c r="A285" s="1" t="s">
         <v>80</v>
       </c>
@@ -15584,7 +15280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" ht="13.5" spans="1:12">
+    <row r="286" spans="1:12">
       <c r="A286" s="1" t="s">
         <v>83</v>
       </c>
@@ -15622,7 +15318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" ht="13.5" spans="1:12">
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>86</v>
       </c>
@@ -15660,7 +15356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="288" ht="13.5" spans="1:12">
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>89</v>
       </c>
@@ -15698,7 +15394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" ht="13.5" spans="1:12">
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
         <v>92</v>
       </c>
@@ -15736,7 +15432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" ht="13.5" spans="1:12">
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
         <v>93</v>
       </c>
@@ -15774,7 +15470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" ht="13.5" spans="1:12">
+    <row r="291" spans="1:12">
       <c r="A291" s="1" t="s">
         <v>95</v>
       </c>
@@ -15812,7 +15508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="292" ht="13.5" spans="1:12">
+    <row r="292" spans="1:12">
       <c r="A292" s="1" t="s">
         <v>98</v>
       </c>
@@ -15850,7 +15546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" ht="13.5" spans="1:12">
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>102</v>
       </c>
@@ -15888,7 +15584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" ht="13.5" spans="1:12">
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -15926,7 +15622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" ht="13.5" spans="1:12">
+    <row r="295" spans="1:12">
       <c r="A295" s="1" t="s">
         <v>98</v>
       </c>
@@ -15964,7 +15660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" ht="13.5" spans="1:12">
+    <row r="296" spans="1:12">
       <c r="A296" s="1" t="s">
         <v>106</v>
       </c>
@@ -16002,7 +15698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="297" ht="13.5" spans="1:12">
+    <row r="297" spans="1:12">
       <c r="A297" s="1" t="s">
         <v>111</v>
       </c>
@@ -16040,7 +15736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="298" ht="13.5" spans="1:12">
+    <row r="298" spans="1:12">
       <c r="A298" s="1" t="s">
         <v>112</v>
       </c>
@@ -16078,7 +15774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="299" ht="13.5" spans="1:12">
+    <row r="299" spans="1:12">
       <c r="A299" s="1" t="s">
         <v>116</v>
       </c>
@@ -16116,7 +15812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="300" ht="13.5" spans="1:12">
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>117</v>
       </c>
@@ -16154,7 +15850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="301" ht="13.5" spans="1:12">
+    <row r="301" spans="1:12">
       <c r="A301" s="1" t="s">
         <v>98</v>
       </c>
@@ -16193,8 +15889,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
